--- a/csoportNOTnorm.xlsx
+++ b/csoportNOTnorm.xlsx
@@ -1,56 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heloszia\Documents\ONLAB\adatbanyaszkodas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>EGYÉB CIKKEK</t>
-  </si>
-  <si>
-    <t>FRISSÁRU</t>
-  </si>
-  <si>
-    <t>HÚS</t>
-  </si>
-  <si>
-    <t>HÚSKÉSZTMÉNYEK</t>
-  </si>
-  <si>
-    <t>ITALOK</t>
-  </si>
-  <si>
-    <t>NON FOOD TERMÉKEK</t>
-  </si>
-  <si>
-    <t>PAPÍR, VEGYIÁRU</t>
-  </si>
-  <si>
-    <t>SZOLGÁLTATÁSOK</t>
-  </si>
-  <si>
-    <t>ZÖLDSÉG, GYÜMÖLCS</t>
-  </si>
-  <si>
-    <t>ÉLELMISZER</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,15 +83,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +173,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,46 +384,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>30103</v>
       </c>
@@ -474,7 +460,7 @@
         <v>241800</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30104</v>
       </c>
@@ -509,7 +495,7 @@
         <v>456100</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30105</v>
       </c>
@@ -544,7 +530,7 @@
         <v>487300</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30106</v>
       </c>
@@ -579,7 +565,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30108</v>
       </c>
@@ -614,7 +600,7 @@
         <v>168100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30109</v>
       </c>
@@ -649,7 +635,7 @@
         <v>25100</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30110</v>
       </c>
@@ -684,7 +670,7 @@
         <v>103300</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30111</v>
       </c>
@@ -719,7 +705,7 @@
         <v>113200</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30113</v>
       </c>
@@ -754,7 +740,7 @@
         <v>-57200</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30116</v>
       </c>
@@ -789,7 +775,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30121</v>
       </c>
@@ -824,7 +810,7 @@
         <v>25800</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30122</v>
       </c>
@@ -859,7 +845,7 @@
         <v>51700</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30123</v>
       </c>
@@ -894,7 +880,7 @@
         <v>660900</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30124</v>
       </c>
@@ -929,7 +915,7 @@
         <v>52400</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30125</v>
       </c>
@@ -964,7 +950,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30126</v>
       </c>
@@ -999,7 +985,7 @@
         <v>62700</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30302</v>
       </c>
@@ -1034,7 +1020,7 @@
         <v>175800</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30313</v>
       </c>
@@ -1069,7 +1055,7 @@
         <v>98600</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30316</v>
       </c>
@@ -1104,7 +1090,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30318</v>
       </c>
@@ -1139,7 +1125,7 @@
         <v>1254200</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30319</v>
       </c>
@@ -1174,7 +1160,7 @@
         <v>24900</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30322</v>
       </c>
@@ -1209,7 +1195,7 @@
         <v>116500</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30323</v>
       </c>
@@ -1244,7 +1230,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30324</v>
       </c>
@@ -1279,7 +1265,7 @@
         <v>67400</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>30325</v>
       </c>
@@ -1314,7 +1300,7 @@
         <v>49300</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30327</v>
       </c>
@@ -1349,7 +1335,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30328</v>
       </c>
@@ -1384,7 +1370,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30329</v>
       </c>
@@ -1419,7 +1405,7 @@
         <v>98400</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30330</v>
       </c>
@@ -1454,7 +1440,7 @@
         <v>65400</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30352</v>
       </c>

--- a/csoportNOTnorm.xlsx
+++ b/csoportNOTnorm.xlsx
@@ -9,17 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="A1:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,5 +1474,1063 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F134" workbookViewId="0">
+      <selection activeCell="K103" sqref="I14:K103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>30103</v>
+      </c>
+      <c r="C1" s="1">
+        <v>30104</v>
+      </c>
+      <c r="D1" s="1">
+        <v>30105</v>
+      </c>
+      <c r="E1" s="1">
+        <v>30106</v>
+      </c>
+      <c r="F1" s="1">
+        <v>30108</v>
+      </c>
+      <c r="G1" s="1">
+        <v>30109</v>
+      </c>
+      <c r="H1" s="1">
+        <v>30110</v>
+      </c>
+      <c r="I1" s="1">
+        <v>30111</v>
+      </c>
+      <c r="J1" s="1">
+        <v>30113</v>
+      </c>
+      <c r="K1" s="1">
+        <v>30116</v>
+      </c>
+      <c r="L1" s="1">
+        <v>30121</v>
+      </c>
+      <c r="M1" s="1">
+        <v>30122</v>
+      </c>
+      <c r="N1" s="1">
+        <v>30123</v>
+      </c>
+      <c r="O1" s="1">
+        <v>30124</v>
+      </c>
+      <c r="P1" s="1">
+        <v>30125</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>30126</v>
+      </c>
+      <c r="R1" s="1">
+        <v>30302</v>
+      </c>
+      <c r="S1" s="1">
+        <v>30313</v>
+      </c>
+      <c r="T1" s="1">
+        <v>30316</v>
+      </c>
+      <c r="U1" s="1">
+        <v>30318</v>
+      </c>
+      <c r="V1" s="1">
+        <v>30319</v>
+      </c>
+      <c r="W1" s="1">
+        <v>30322</v>
+      </c>
+      <c r="X1" s="1">
+        <v>30323</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>30324</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>30325</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>30327</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>30328</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>30329</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>30330</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>16600</v>
+      </c>
+      <c r="C2">
+        <v>47300</v>
+      </c>
+      <c r="D2">
+        <v>31700</v>
+      </c>
+      <c r="E2">
+        <v>3300</v>
+      </c>
+      <c r="F2">
+        <v>6000</v>
+      </c>
+      <c r="G2">
+        <v>13200</v>
+      </c>
+      <c r="H2">
+        <v>14800</v>
+      </c>
+      <c r="I2">
+        <v>2900</v>
+      </c>
+      <c r="J2">
+        <v>-400</v>
+      </c>
+      <c r="K2">
+        <v>2600</v>
+      </c>
+      <c r="L2">
+        <v>5000</v>
+      </c>
+      <c r="M2">
+        <v>9600</v>
+      </c>
+      <c r="N2">
+        <v>46800</v>
+      </c>
+      <c r="O2">
+        <v>5200</v>
+      </c>
+      <c r="P2">
+        <v>20200</v>
+      </c>
+      <c r="Q2">
+        <v>7300</v>
+      </c>
+      <c r="R2">
+        <v>15600</v>
+      </c>
+      <c r="S2">
+        <v>9100</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>74000</v>
+      </c>
+      <c r="V2">
+        <v>18800</v>
+      </c>
+      <c r="W2">
+        <v>7700</v>
+      </c>
+      <c r="X2">
+        <v>1300</v>
+      </c>
+      <c r="Y2">
+        <v>4500</v>
+      </c>
+      <c r="Z2">
+        <v>24300</v>
+      </c>
+      <c r="AA2">
+        <v>9000</v>
+      </c>
+      <c r="AB2">
+        <v>6200</v>
+      </c>
+      <c r="AC2">
+        <v>6500</v>
+      </c>
+      <c r="AD2">
+        <v>10900</v>
+      </c>
+      <c r="AE2">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>26900</v>
+      </c>
+      <c r="C3">
+        <v>66800</v>
+      </c>
+      <c r="D3">
+        <v>6600</v>
+      </c>
+      <c r="E3">
+        <v>5300</v>
+      </c>
+      <c r="F3">
+        <v>21200</v>
+      </c>
+      <c r="G3">
+        <v>5100</v>
+      </c>
+      <c r="H3">
+        <v>18300</v>
+      </c>
+      <c r="I3">
+        <v>33100</v>
+      </c>
+      <c r="J3">
+        <v>28700</v>
+      </c>
+      <c r="K3">
+        <v>13500</v>
+      </c>
+      <c r="L3">
+        <v>2500</v>
+      </c>
+      <c r="M3">
+        <v>19600</v>
+      </c>
+      <c r="N3">
+        <v>224000</v>
+      </c>
+      <c r="O3">
+        <v>2700</v>
+      </c>
+      <c r="P3">
+        <v>2900</v>
+      </c>
+      <c r="Q3">
+        <v>23000</v>
+      </c>
+      <c r="R3">
+        <v>12200</v>
+      </c>
+      <c r="S3">
+        <v>41300</v>
+      </c>
+      <c r="T3">
+        <v>3300</v>
+      </c>
+      <c r="U3">
+        <v>69700</v>
+      </c>
+      <c r="V3">
+        <v>10100</v>
+      </c>
+      <c r="W3">
+        <v>25700</v>
+      </c>
+      <c r="X3">
+        <v>8600</v>
+      </c>
+      <c r="Y3">
+        <v>6000</v>
+      </c>
+      <c r="Z3">
+        <v>12800</v>
+      </c>
+      <c r="AA3">
+        <v>33400</v>
+      </c>
+      <c r="AB3">
+        <v>-300</v>
+      </c>
+      <c r="AC3">
+        <v>15400</v>
+      </c>
+      <c r="AD3">
+        <v>8400</v>
+      </c>
+      <c r="AE3">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7400</v>
+      </c>
+      <c r="C4">
+        <v>34700</v>
+      </c>
+      <c r="D4">
+        <v>2700</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1600</v>
+      </c>
+      <c r="G4">
+        <v>1400</v>
+      </c>
+      <c r="H4">
+        <v>5000</v>
+      </c>
+      <c r="I4">
+        <v>4800</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10100</v>
+      </c>
+      <c r="L4">
+        <v>-500</v>
+      </c>
+      <c r="M4">
+        <v>500</v>
+      </c>
+      <c r="N4">
+        <v>53200</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>-600</v>
+      </c>
+      <c r="R4">
+        <v>4600</v>
+      </c>
+      <c r="S4">
+        <v>2600</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>200</v>
+      </c>
+      <c r="V4">
+        <v>2300</v>
+      </c>
+      <c r="W4">
+        <v>-5000</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>6900</v>
+      </c>
+      <c r="Z4">
+        <v>500</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>-1800</v>
+      </c>
+      <c r="AC4">
+        <v>5100</v>
+      </c>
+      <c r="AD4">
+        <v>1500</v>
+      </c>
+      <c r="AE4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1300</v>
+      </c>
+      <c r="C5">
+        <v>8200</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>600</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2400</v>
+      </c>
+      <c r="J5">
+        <v>1100</v>
+      </c>
+      <c r="K5">
+        <v>800</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>39900</v>
+      </c>
+      <c r="O5">
+        <v>600</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>400</v>
+      </c>
+      <c r="R5">
+        <v>1700</v>
+      </c>
+      <c r="S5">
+        <v>2900</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>9700</v>
+      </c>
+      <c r="V5">
+        <v>1300</v>
+      </c>
+      <c r="W5">
+        <v>3600</v>
+      </c>
+      <c r="X5">
+        <v>600</v>
+      </c>
+      <c r="Y5">
+        <v>1800</v>
+      </c>
+      <c r="Z5">
+        <v>1200</v>
+      </c>
+      <c r="AA5">
+        <v>1500</v>
+      </c>
+      <c r="AB5">
+        <v>600</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>67800</v>
+      </c>
+      <c r="C6">
+        <v>237500</v>
+      </c>
+      <c r="D6">
+        <v>49400</v>
+      </c>
+      <c r="E6">
+        <v>13800</v>
+      </c>
+      <c r="F6">
+        <v>18800</v>
+      </c>
+      <c r="G6">
+        <v>13900</v>
+      </c>
+      <c r="H6">
+        <v>46300</v>
+      </c>
+      <c r="I6">
+        <v>50500</v>
+      </c>
+      <c r="J6">
+        <v>61000</v>
+      </c>
+      <c r="K6">
+        <v>39400</v>
+      </c>
+      <c r="L6">
+        <v>7000</v>
+      </c>
+      <c r="M6">
+        <v>41800</v>
+      </c>
+      <c r="N6">
+        <v>222000</v>
+      </c>
+      <c r="O6">
+        <v>15200</v>
+      </c>
+      <c r="P6">
+        <v>12800</v>
+      </c>
+      <c r="Q6">
+        <v>38300</v>
+      </c>
+      <c r="R6">
+        <v>42900</v>
+      </c>
+      <c r="S6">
+        <v>70600</v>
+      </c>
+      <c r="T6">
+        <v>1600</v>
+      </c>
+      <c r="U6">
+        <v>119300</v>
+      </c>
+      <c r="V6">
+        <v>28800</v>
+      </c>
+      <c r="W6">
+        <v>62900</v>
+      </c>
+      <c r="X6">
+        <v>23300</v>
+      </c>
+      <c r="Y6">
+        <v>4900</v>
+      </c>
+      <c r="Z6">
+        <v>17400</v>
+      </c>
+      <c r="AA6">
+        <v>33900</v>
+      </c>
+      <c r="AB6">
+        <v>24400</v>
+      </c>
+      <c r="AC6">
+        <v>34400</v>
+      </c>
+      <c r="AD6">
+        <v>17500</v>
+      </c>
+      <c r="AE6">
+        <v>56900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9000</v>
+      </c>
+      <c r="C7">
+        <v>42600</v>
+      </c>
+      <c r="D7">
+        <v>5500</v>
+      </c>
+      <c r="E7">
+        <v>600</v>
+      </c>
+      <c r="F7">
+        <v>400</v>
+      </c>
+      <c r="G7">
+        <v>10500</v>
+      </c>
+      <c r="H7">
+        <v>1800</v>
+      </c>
+      <c r="I7">
+        <v>6700</v>
+      </c>
+      <c r="J7">
+        <v>15000</v>
+      </c>
+      <c r="K7">
+        <v>-600</v>
+      </c>
+      <c r="L7">
+        <v>1200</v>
+      </c>
+      <c r="M7">
+        <v>1400</v>
+      </c>
+      <c r="N7">
+        <v>17600</v>
+      </c>
+      <c r="O7">
+        <v>1200</v>
+      </c>
+      <c r="P7">
+        <v>1200</v>
+      </c>
+      <c r="Q7">
+        <v>15000</v>
+      </c>
+      <c r="R7">
+        <v>10700</v>
+      </c>
+      <c r="S7">
+        <v>21000</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>24900</v>
+      </c>
+      <c r="V7">
+        <v>1200</v>
+      </c>
+      <c r="W7">
+        <v>9000</v>
+      </c>
+      <c r="X7">
+        <v>6000</v>
+      </c>
+      <c r="Y7">
+        <v>31100</v>
+      </c>
+      <c r="Z7">
+        <v>600</v>
+      </c>
+      <c r="AA7">
+        <v>-1800</v>
+      </c>
+      <c r="AB7">
+        <v>6500</v>
+      </c>
+      <c r="AC7">
+        <v>18400</v>
+      </c>
+      <c r="AD7">
+        <v>12400</v>
+      </c>
+      <c r="AE7">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>40300</v>
+      </c>
+      <c r="C8">
+        <v>160900</v>
+      </c>
+      <c r="D8">
+        <v>22100</v>
+      </c>
+      <c r="E8">
+        <v>19500</v>
+      </c>
+      <c r="F8">
+        <v>21500</v>
+      </c>
+      <c r="G8">
+        <v>28500</v>
+      </c>
+      <c r="H8">
+        <v>37500</v>
+      </c>
+      <c r="I8">
+        <v>33100</v>
+      </c>
+      <c r="J8">
+        <v>49300</v>
+      </c>
+      <c r="K8">
+        <v>29300</v>
+      </c>
+      <c r="L8">
+        <v>21000</v>
+      </c>
+      <c r="M8">
+        <v>12700</v>
+      </c>
+      <c r="N8">
+        <v>91400</v>
+      </c>
+      <c r="O8">
+        <v>17100</v>
+      </c>
+      <c r="P8">
+        <v>16500</v>
+      </c>
+      <c r="Q8">
+        <v>28500</v>
+      </c>
+      <c r="R8">
+        <v>42900</v>
+      </c>
+      <c r="S8">
+        <v>15200</v>
+      </c>
+      <c r="T8">
+        <v>18300</v>
+      </c>
+      <c r="U8">
+        <v>111100</v>
+      </c>
+      <c r="V8">
+        <v>22600</v>
+      </c>
+      <c r="W8">
+        <v>38200</v>
+      </c>
+      <c r="X8">
+        <v>23200</v>
+      </c>
+      <c r="Y8">
+        <v>-1500</v>
+      </c>
+      <c r="Z8">
+        <v>10900</v>
+      </c>
+      <c r="AA8">
+        <v>18300</v>
+      </c>
+      <c r="AB8">
+        <v>15100</v>
+      </c>
+      <c r="AC8">
+        <v>28000</v>
+      </c>
+      <c r="AD8">
+        <v>34400</v>
+      </c>
+      <c r="AE8">
+        <v>36800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>24000</v>
+      </c>
+      <c r="C9">
+        <v>29200</v>
+      </c>
+      <c r="D9">
+        <v>13400</v>
+      </c>
+      <c r="E9">
+        <v>10800</v>
+      </c>
+      <c r="F9">
+        <v>9500</v>
+      </c>
+      <c r="G9">
+        <v>7800</v>
+      </c>
+      <c r="H9">
+        <v>15900</v>
+      </c>
+      <c r="I9">
+        <v>25000</v>
+      </c>
+      <c r="J9">
+        <v>9600</v>
+      </c>
+      <c r="K9">
+        <v>20800</v>
+      </c>
+      <c r="L9">
+        <v>12600</v>
+      </c>
+      <c r="M9">
+        <v>9000</v>
+      </c>
+      <c r="N9">
+        <v>14400</v>
+      </c>
+      <c r="O9">
+        <v>5900</v>
+      </c>
+      <c r="P9">
+        <v>10700</v>
+      </c>
+      <c r="Q9">
+        <v>17300</v>
+      </c>
+      <c r="R9">
+        <v>11700</v>
+      </c>
+      <c r="S9">
+        <v>12500</v>
+      </c>
+      <c r="T9">
+        <v>5900</v>
+      </c>
+      <c r="U9">
+        <v>33200</v>
+      </c>
+      <c r="V9">
+        <v>13900</v>
+      </c>
+      <c r="W9">
+        <v>18600</v>
+      </c>
+      <c r="X9">
+        <v>8000</v>
+      </c>
+      <c r="Y9">
+        <v>9900</v>
+      </c>
+      <c r="Z9">
+        <v>19000</v>
+      </c>
+      <c r="AA9">
+        <v>11200</v>
+      </c>
+      <c r="AB9">
+        <v>11400</v>
+      </c>
+      <c r="AC9">
+        <v>7800</v>
+      </c>
+      <c r="AD9">
+        <v>11800</v>
+      </c>
+      <c r="AE9">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8000</v>
+      </c>
+      <c r="C10">
+        <v>36000</v>
+      </c>
+      <c r="D10">
+        <v>3300</v>
+      </c>
+      <c r="E10">
+        <v>400</v>
+      </c>
+      <c r="F10">
+        <v>2700</v>
+      </c>
+      <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
+        <v>13300</v>
+      </c>
+      <c r="I10">
+        <v>8500</v>
+      </c>
+      <c r="J10">
+        <v>3300</v>
+      </c>
+      <c r="K10">
+        <v>7100</v>
+      </c>
+      <c r="L10">
+        <v>600</v>
+      </c>
+      <c r="M10">
+        <v>1200</v>
+      </c>
+      <c r="N10">
+        <v>125800</v>
+      </c>
+      <c r="O10">
+        <v>2000</v>
+      </c>
+      <c r="P10">
+        <v>1100</v>
+      </c>
+      <c r="Q10">
+        <v>9500</v>
+      </c>
+      <c r="R10">
+        <v>11300</v>
+      </c>
+      <c r="S10">
+        <v>16300</v>
+      </c>
+      <c r="T10">
+        <v>500</v>
+      </c>
+      <c r="U10">
+        <v>29900</v>
+      </c>
+      <c r="V10">
+        <v>5200</v>
+      </c>
+      <c r="W10">
+        <v>400</v>
+      </c>
+      <c r="X10">
+        <v>6800</v>
+      </c>
+      <c r="Y10">
+        <v>8200</v>
+      </c>
+      <c r="Z10">
+        <v>500</v>
+      </c>
+      <c r="AA10">
+        <v>11900</v>
+      </c>
+      <c r="AB10">
+        <v>1300</v>
+      </c>
+      <c r="AC10">
+        <v>9100</v>
+      </c>
+      <c r="AD10">
+        <v>2600</v>
+      </c>
+      <c r="AE10">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>241800</v>
+      </c>
+      <c r="C11">
+        <v>456100</v>
+      </c>
+      <c r="D11">
+        <v>487300</v>
+      </c>
+      <c r="E11">
+        <v>34000</v>
+      </c>
+      <c r="F11">
+        <v>168100</v>
+      </c>
+      <c r="G11">
+        <v>25100</v>
+      </c>
+      <c r="H11">
+        <v>103300</v>
+      </c>
+      <c r="I11">
+        <v>113200</v>
+      </c>
+      <c r="J11">
+        <v>-57200</v>
+      </c>
+      <c r="K11">
+        <v>39300</v>
+      </c>
+      <c r="L11">
+        <v>25800</v>
+      </c>
+      <c r="M11">
+        <v>51700</v>
+      </c>
+      <c r="N11">
+        <v>660900</v>
+      </c>
+      <c r="O11">
+        <v>52400</v>
+      </c>
+      <c r="P11">
+        <v>15700</v>
+      </c>
+      <c r="Q11">
+        <v>62700</v>
+      </c>
+      <c r="R11">
+        <v>175800</v>
+      </c>
+      <c r="S11">
+        <v>98600</v>
+      </c>
+      <c r="T11">
+        <v>6500</v>
+      </c>
+      <c r="U11">
+        <v>1254200</v>
+      </c>
+      <c r="V11">
+        <v>24900</v>
+      </c>
+      <c r="W11">
+        <v>116500</v>
+      </c>
+      <c r="X11">
+        <v>44200</v>
+      </c>
+      <c r="Y11">
+        <v>67400</v>
+      </c>
+      <c r="Z11">
+        <v>49300</v>
+      </c>
+      <c r="AA11">
+        <v>97000</v>
+      </c>
+      <c r="AB11">
+        <v>54000</v>
+      </c>
+      <c r="AC11">
+        <v>98400</v>
+      </c>
+      <c r="AD11">
+        <v>65400</v>
+      </c>
+      <c r="AE11">
+        <v>424900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>